--- a/original-sources/historical/vaccinations/vaccinations_2021-02-22.xlsx
+++ b/original-sources/historical/vaccinations/vaccinations_2021-02-22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID response\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffb\Desktop\Life\personal-projects\COVID\original-sources\historical\vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{602263CD-2ED6-4FB5-BCF1-AD7D637C1D7C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D5FF35-B086-4412-AD7A-67EA211F7E42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="5160" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'By County'!$A$1:$K$258</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1574,7 +1574,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1702,7 +1702,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N259"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
